--- a/powerapp/data/rly_pocket.xlsx
+++ b/powerapp/data/rly_pocket.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/externalDrive/code-gym/work/powerapp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD66DA7-BE90-D344-A724-97967F8DA62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3034DB-82B2-9B4A-8BC5-B8040E557385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34380" yWindow="620" windowWidth="34420" windowHeight="26380" xr2:uid="{1573EAB7-FFAF-4561-9B65-1A3D884CB122}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="hvcb_rly_assignment" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">hvcb_rly_assignment!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">hvcb_rly_assignment!$A$1:$E$128</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="229">
   <si>
     <t>klmk_rtau</t>
   </si>
@@ -627,6 +627,105 @@
   </si>
   <si>
     <t>asmb_132</t>
+  </si>
+  <si>
+    <t>scheme</t>
+  </si>
+  <si>
+    <t>ufls</t>
+  </si>
+  <si>
+    <t>ufls_emls</t>
+  </si>
+  <si>
+    <t>pklg_kgjh</t>
+  </si>
+  <si>
+    <t>KSGR</t>
+  </si>
+  <si>
+    <t>SBSR</t>
+  </si>
+  <si>
+    <t>KGJH</t>
+  </si>
+  <si>
+    <t>SMNK 1</t>
+  </si>
+  <si>
+    <t>SMNK 2</t>
+  </si>
+  <si>
+    <t>hcom_kkmg</t>
+  </si>
+  <si>
+    <t>HCOM</t>
+  </si>
+  <si>
+    <t>KKMG 1</t>
+  </si>
+  <si>
+    <t>KKMG 2</t>
+  </si>
+  <si>
+    <t>brgs_mhta</t>
+  </si>
+  <si>
+    <t>MHTA 1</t>
+  </si>
+  <si>
+    <t>MHTA 2</t>
+  </si>
+  <si>
+    <t>ppth_sjth</t>
+  </si>
+  <si>
+    <t>PPTH</t>
+  </si>
+  <si>
+    <t>SJTH 1</t>
+  </si>
+  <si>
+    <t>SJTH 2</t>
+  </si>
+  <si>
+    <t>ktgu_gbdk</t>
+  </si>
+  <si>
+    <t>emls</t>
+  </si>
+  <si>
+    <t>KTGU</t>
+  </si>
+  <si>
+    <t>GBDK 1</t>
+  </si>
+  <si>
+    <t>GBDK 2</t>
+  </si>
+  <si>
+    <t>htxd_132</t>
+  </si>
+  <si>
+    <t>HTSS</t>
+  </si>
+  <si>
+    <t>HTXD 1</t>
+  </si>
+  <si>
+    <t>HTXD 2</t>
+  </si>
+  <si>
+    <t>pmjy_kptr</t>
+  </si>
+  <si>
+    <t>PMJY</t>
+  </si>
+  <si>
+    <t>KPTR 1</t>
+  </si>
+  <si>
+    <t>KPTR 2</t>
   </si>
 </sst>
 </file>
@@ -636,7 +735,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -685,6 +784,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -706,7 +811,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -731,6 +836,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1065,11 +1173,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D825B9-6A44-4EAD-8B36-4FE9BC2E96F1}">
-  <dimension ref="A1:L110"/>
+  <dimension ref="A1:L128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="232" zoomScaleNormal="232" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F107" sqref="F107:F110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1098,6 +1206,9 @@
       <c r="E1" s="2" t="s">
         <v>191</v>
       </c>
+      <c r="F1" s="12" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -1114,6 +1225,9 @@
       </c>
       <c r="E2" s="6" t="s">
         <v>55</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1323,7 +1437,9 @@
       <c r="E13" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>198</v>
+      </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -1347,7 +1463,9 @@
       <c r="E14" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="7" t="s">
+        <v>198</v>
+      </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -1371,7 +1489,9 @@
       <c r="E15" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -1395,7 +1515,9 @@
       <c r="E16" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -1419,7 +1541,9 @@
       <c r="E17" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -1443,7 +1567,9 @@
       <c r="E18" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F18" s="7"/>
+      <c r="F18" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
@@ -1467,7 +1593,9 @@
       <c r="E19" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F19" s="7"/>
+      <c r="F19" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
@@ -1491,7 +1619,9 @@
       <c r="E20" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F20" s="7"/>
+      <c r="F20" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -1515,7 +1645,9 @@
       <c r="E21" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F21" s="7"/>
+      <c r="F21" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -1539,7 +1671,9 @@
       <c r="E22" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F22" s="7"/>
+      <c r="F22" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -1563,7 +1697,9 @@
       <c r="E23" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F23" s="7"/>
+      <c r="F23" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -1587,7 +1723,9 @@
       <c r="E24" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="F24" s="7"/>
+      <c r="F24" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
@@ -1611,7 +1749,9 @@
       <c r="E25" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F25" s="7"/>
+      <c r="F25" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -1635,7 +1775,9 @@
       <c r="E26" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F26" s="7"/>
+      <c r="F26" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -1659,7 +1801,9 @@
       <c r="E27" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F27" s="7"/>
+      <c r="F27" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -1683,7 +1827,9 @@
       <c r="E28" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F28" s="7"/>
+      <c r="F28" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -1707,7 +1853,9 @@
       <c r="E29" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F29" s="7"/>
+      <c r="F29" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
@@ -1731,7 +1879,9 @@
       <c r="E30" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="F30" s="7"/>
+      <c r="F30" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
@@ -1755,7 +1905,9 @@
       <c r="E31" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F31" s="7"/>
+      <c r="F31" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
@@ -1779,7 +1931,9 @@
       <c r="E32" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F32" s="7"/>
+      <c r="F32" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
@@ -1803,7 +1957,9 @@
       <c r="E33" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="F33" s="7"/>
+      <c r="F33" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
@@ -1827,7 +1983,9 @@
       <c r="E34" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F34" s="7"/>
+      <c r="F34" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
@@ -1851,7 +2009,9 @@
       <c r="E35" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F35" s="7"/>
+      <c r="F35" s="7" t="s">
+        <v>198</v>
+      </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
@@ -1875,7 +2035,9 @@
       <c r="E36" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="7"/>
+      <c r="F36" s="7" t="s">
+        <v>198</v>
+      </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
@@ -1899,7 +2061,9 @@
       <c r="E37" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F37" s="7"/>
+      <c r="F37" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
@@ -1923,7 +2087,9 @@
       <c r="E38" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F38" s="7"/>
+      <c r="F38" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
@@ -1947,7 +2113,9 @@
       <c r="E39" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F39" s="7"/>
+      <c r="F39" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
@@ -1971,7 +2139,9 @@
       <c r="E40" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F40" s="7"/>
+      <c r="F40" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
@@ -1995,7 +2165,9 @@
       <c r="E41" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F41" s="7"/>
+      <c r="F41" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
@@ -2019,7 +2191,9 @@
       <c r="E42" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F42" s="7"/>
+      <c r="F42" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
@@ -2043,7 +2217,9 @@
       <c r="E43" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F43" s="7"/>
+      <c r="F43" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
@@ -2067,7 +2243,9 @@
       <c r="E44" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F44" s="7"/>
+      <c r="F44" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
@@ -2091,7 +2269,9 @@
       <c r="E45" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F45" s="7"/>
+      <c r="F45" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
@@ -2115,7 +2295,9 @@
       <c r="E46" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F46" s="7"/>
+      <c r="F46" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
@@ -2139,6 +2321,9 @@
       <c r="E47" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="F47" s="7" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="48" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
@@ -2156,6 +2341,9 @@
       <c r="E48" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="F48" s="7" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="49" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
@@ -2173,7 +2361,9 @@
       <c r="E49" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F49" s="7"/>
+      <c r="F49" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
@@ -2197,7 +2387,9 @@
       <c r="E50" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="F50" s="7"/>
+      <c r="F50" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
@@ -2221,6 +2413,9 @@
       <c r="E51" s="6" t="s">
         <v>111</v>
       </c>
+      <c r="F51" s="7" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
@@ -2238,6 +2433,9 @@
       <c r="E52" s="6" t="s">
         <v>112</v>
       </c>
+      <c r="F52" s="7" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
@@ -2255,6 +2453,9 @@
       <c r="E53" s="6" t="s">
         <v>114</v>
       </c>
+      <c r="F53" s="7" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="54" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
@@ -2272,6 +2473,9 @@
       <c r="E54" s="6" t="s">
         <v>115</v>
       </c>
+      <c r="F54" s="7" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
@@ -2289,6 +2493,9 @@
       <c r="E55" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="F55" s="7" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
@@ -2306,6 +2513,9 @@
       <c r="E56" s="6" t="s">
         <v>117</v>
       </c>
+      <c r="F56" s="7" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
@@ -2323,6 +2533,9 @@
       <c r="E57" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="F57" s="7" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
@@ -2340,6 +2553,9 @@
       <c r="E58" s="6" t="s">
         <v>41</v>
       </c>
+      <c r="F58" s="7" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
@@ -2357,6 +2573,9 @@
       <c r="E59" s="6" t="s">
         <v>121</v>
       </c>
+      <c r="F59" s="7" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
@@ -2374,6 +2593,9 @@
       <c r="E60" s="6" t="s">
         <v>122</v>
       </c>
+      <c r="F60" s="7" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
@@ -2391,6 +2613,9 @@
       <c r="E61" s="6" t="s">
         <v>121</v>
       </c>
+      <c r="F61" s="7" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
@@ -2408,6 +2633,9 @@
       <c r="E62" s="6" t="s">
         <v>122</v>
       </c>
+      <c r="F62" s="7" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
@@ -2425,6 +2653,9 @@
       <c r="E63" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="F63" s="7" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="64" spans="1:12" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
@@ -2442,7 +2673,9 @@
       <c r="E64" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F64" s="7"/>
+      <c r="F64" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
       <c r="I64" s="7"/>
@@ -2466,7 +2699,9 @@
       <c r="E65" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="F65" s="7"/>
+      <c r="F65" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
       <c r="I65" s="7"/>
@@ -2490,7 +2725,9 @@
       <c r="E66" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="F66" s="7"/>
+      <c r="F66" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
       <c r="I66" s="7"/>
@@ -2514,7 +2751,9 @@
       <c r="E67" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="F67" s="7"/>
+      <c r="F67" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
       <c r="I67" s="7"/>
@@ -2538,7 +2777,9 @@
       <c r="E68" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="F68" s="7"/>
+      <c r="F68" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
@@ -2562,7 +2803,9 @@
       <c r="E69" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="F69" s="7"/>
+      <c r="F69" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
@@ -2586,6 +2829,9 @@
       <c r="E70" s="6" t="s">
         <v>127</v>
       </c>
+      <c r="F70" s="7" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
@@ -2603,6 +2849,9 @@
       <c r="E71" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="F71" s="7" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="72" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
@@ -2620,6 +2869,9 @@
       <c r="E72" s="6" t="s">
         <v>132</v>
       </c>
+      <c r="F72" s="7" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="73" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
@@ -2637,6 +2889,9 @@
       <c r="E73" s="6" t="s">
         <v>133</v>
       </c>
+      <c r="F73" s="7" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
@@ -2654,6 +2909,9 @@
       <c r="E74" s="6" t="s">
         <v>134</v>
       </c>
+      <c r="F74" s="7" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
@@ -2671,6 +2929,9 @@
       <c r="E75" s="6" t="s">
         <v>136</v>
       </c>
+      <c r="F75" s="7" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
@@ -2688,6 +2949,9 @@
       <c r="E76" s="6" t="s">
         <v>137</v>
       </c>
+      <c r="F76" s="7" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="77" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
@@ -2705,7 +2969,9 @@
       <c r="E77" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="F77" s="7"/>
+      <c r="F77" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
       <c r="I77" s="7"/>
@@ -2729,7 +2995,9 @@
       <c r="E78" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="F78" s="7"/>
+      <c r="F78" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
       <c r="I78" s="7"/>
@@ -2753,7 +3021,9 @@
       <c r="E79" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F79" s="7"/>
+      <c r="F79" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
       <c r="I79" s="7"/>
@@ -2777,7 +3047,9 @@
       <c r="E80" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="F80" s="7"/>
+      <c r="F80" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
       <c r="I80" s="7"/>
@@ -2801,7 +3073,9 @@
       <c r="E81" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F81" s="7"/>
+      <c r="F81" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
       <c r="I81" s="7"/>
@@ -2825,7 +3099,9 @@
       <c r="E82" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F82" s="7"/>
+      <c r="F82" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
       <c r="I82" s="7"/>
@@ -2849,7 +3125,9 @@
       <c r="E83" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="F83" s="7"/>
+      <c r="F83" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
       <c r="I83" s="7"/>
@@ -2873,7 +3151,9 @@
       <c r="E84" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="F84" s="7"/>
+      <c r="F84" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
       <c r="I84" s="7"/>
@@ -2897,7 +3177,9 @@
       <c r="E85" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="F85" s="7"/>
+      <c r="F85" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
       <c r="I85" s="7"/>
@@ -2921,6 +3203,9 @@
       <c r="E86" s="6" t="s">
         <v>150</v>
       </c>
+      <c r="F86" s="7" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
@@ -2938,6 +3223,9 @@
       <c r="E87" s="6" t="s">
         <v>151</v>
       </c>
+      <c r="F87" s="7" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
@@ -2955,6 +3243,9 @@
       <c r="E88" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="F88" s="7" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="89" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
@@ -2972,6 +3263,9 @@
       <c r="E89" s="6" t="s">
         <v>151</v>
       </c>
+      <c r="F89" s="7" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
@@ -2989,6 +3283,9 @@
       <c r="E90" s="6" t="s">
         <v>27</v>
       </c>
+      <c r="F90" s="7" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
@@ -3006,6 +3303,9 @@
       <c r="E91" s="6" t="s">
         <v>28</v>
       </c>
+      <c r="F91" s="7" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
@@ -3023,6 +3323,9 @@
       <c r="E92" s="6" t="s">
         <v>153</v>
       </c>
+      <c r="F92" s="7" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
@@ -3040,6 +3343,9 @@
       <c r="E93" s="6" t="s">
         <v>154</v>
       </c>
+      <c r="F93" s="7" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="94" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
@@ -3057,7 +3363,9 @@
       <c r="E94" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="F94" s="7"/>
+      <c r="F94" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="G94" s="7"/>
       <c r="H94" s="7"/>
       <c r="I94" s="7"/>
@@ -3081,6 +3389,9 @@
       <c r="E95" s="6" t="s">
         <v>157</v>
       </c>
+      <c r="F95" s="7" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
@@ -3098,6 +3409,9 @@
       <c r="E96" s="6" t="s">
         <v>158</v>
       </c>
+      <c r="F96" s="7" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
@@ -3115,6 +3429,9 @@
       <c r="E97" s="6" t="s">
         <v>159</v>
       </c>
+      <c r="F97" s="7" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
@@ -3132,6 +3449,9 @@
       <c r="E98" s="6" t="s">
         <v>160</v>
       </c>
+      <c r="F98" s="7" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="99" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
@@ -3149,6 +3469,9 @@
       <c r="E99" s="6" t="s">
         <v>161</v>
       </c>
+      <c r="F99" s="7" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="100" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
@@ -3166,6 +3489,9 @@
       <c r="E100" s="6" t="s">
         <v>31</v>
       </c>
+      <c r="F100" s="7" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
@@ -3183,6 +3509,9 @@
       <c r="E101" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="F101" s="7" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
@@ -3200,6 +3529,9 @@
       <c r="E102" s="6" t="s">
         <v>32</v>
       </c>
+      <c r="F102" s="7" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="103" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
@@ -3217,7 +3549,9 @@
       <c r="E103" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F103" s="7"/>
+      <c r="F103" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="G103" s="7"/>
       <c r="H103" s="7"/>
       <c r="I103" s="7"/>
@@ -3241,6 +3575,9 @@
       <c r="E104" s="6" t="s">
         <v>164</v>
       </c>
+      <c r="F104" s="8" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="105" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
@@ -3258,6 +3595,9 @@
       <c r="E105" s="6" t="s">
         <v>165</v>
       </c>
+      <c r="F105" s="8" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="106" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
@@ -3275,6 +3615,9 @@
       <c r="E106" s="6" t="s">
         <v>166</v>
       </c>
+      <c r="F106" s="8" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="107" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
@@ -3292,6 +3635,9 @@
       <c r="E107" s="6" t="s">
         <v>167</v>
       </c>
+      <c r="F107" s="7" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="108" spans="1:12" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
@@ -3309,6 +3655,9 @@
       <c r="E108" s="6" t="s">
         <v>168</v>
       </c>
+      <c r="F108" s="7" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="109" spans="1:12" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
@@ -3326,6 +3675,9 @@
       <c r="E109" s="6" t="s">
         <v>37</v>
       </c>
+      <c r="F109" s="7" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="110" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
@@ -3343,9 +3695,372 @@
       <c r="E110" s="6" t="s">
         <v>36</v>
       </c>
+      <c r="F110" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A111" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C111" s="6">
+        <v>132</v>
+      </c>
+      <c r="D111" s="5">
+        <v>105</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F111" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A112" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C112" s="6">
+        <v>132</v>
+      </c>
+      <c r="D112" s="5">
+        <v>405</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C113" s="6">
+        <v>132</v>
+      </c>
+      <c r="D113" s="5">
+        <v>505</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="F113" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C114" s="6">
+        <v>132</v>
+      </c>
+      <c r="D114" s="5">
+        <v>605</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="F114" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C115" s="6">
+        <v>132</v>
+      </c>
+      <c r="D115" s="5">
+        <v>305</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C116" s="6">
+        <v>132</v>
+      </c>
+      <c r="D116" s="5">
+        <v>405</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="F116" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C117" s="6">
+        <v>132</v>
+      </c>
+      <c r="D117" s="5">
+        <v>1130</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="F117" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C118" s="6">
+        <v>132</v>
+      </c>
+      <c r="D118" s="5">
+        <v>1230</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="F118" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C119" s="6">
+        <v>132</v>
+      </c>
+      <c r="D119" s="5">
+        <v>2130</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="F119" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C120" s="6">
+        <v>132</v>
+      </c>
+      <c r="D120" s="5">
+        <v>2230</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="F120" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C121" s="6">
+        <v>132</v>
+      </c>
+      <c r="D121" s="5">
+        <v>105</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C122" s="6">
+        <v>132</v>
+      </c>
+      <c r="D122" s="5">
+        <v>205</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="F122" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C123" s="6">
+        <v>132</v>
+      </c>
+      <c r="D123" s="5">
+        <v>305</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="F123" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C124" s="6">
+        <v>132</v>
+      </c>
+      <c r="D124" s="5">
+        <v>405</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="F124" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C125" s="6">
+        <v>132</v>
+      </c>
+      <c r="D125" s="5">
+        <v>105</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="F125" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C126" s="6">
+        <v>132</v>
+      </c>
+      <c r="D126" s="5">
+        <v>205</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="F126" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C127" s="6">
+        <v>132</v>
+      </c>
+      <c r="D127" s="5">
+        <v>105</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="F127" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C128" s="6">
+        <v>132</v>
+      </c>
+      <c r="D128" s="5">
+        <v>205</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F128" s="7" t="s">
+        <v>217</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{06D825B9-6A44-4EAD-8B36-4FE9BC2E96F1}"/>
+  <autoFilter ref="A1:E128" xr:uid="{06D825B9-6A44-4EAD-8B36-4FE9BC2E96F1}"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/powerapp/data/rly_pocket.xlsx
+++ b/powerapp/data/rly_pocket.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/externalDrive/code-gym/work/powerapp/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myIjat\Dojo\power_app\powerapp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3034DB-82B2-9B4A-8BC5-B8040E557385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86A4256-3C75-410A-807D-EA31A11DDDE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34380" yWindow="620" windowWidth="34420" windowHeight="26380" xr2:uid="{1573EAB7-FFAF-4561-9B65-1A3D884CB122}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{1573EAB7-FFAF-4561-9B65-1A3D884CB122}"/>
   </bookViews>
   <sheets>
     <sheet name="hvcb_rly_assignment" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="229">
   <si>
     <t>klmk_rtau</t>
   </si>
@@ -735,7 +735,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -744,49 +744,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Aptos"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Aptos"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="Aptos"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Aptos"/>
       <family val="2"/>
     </font>
@@ -813,30 +802,30 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1175,22 +1164,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D825B9-6A44-4EAD-8B36-4FE9BC2E96F1}">
   <dimension ref="A1:L128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="232" zoomScaleNormal="232" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F107" sqref="F107:F110"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="17.5" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" style="5" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" style="6" customWidth="1"/>
     <col min="4" max="4" width="20" style="5" customWidth="1"/>
     <col min="5" max="5" width="23.6640625" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="8.6640625" style="7"/>
+    <col min="6" max="6" width="8.6640625" style="8"/>
+    <col min="7" max="16384" width="8.6640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="3" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>190</v>
       </c>
@@ -1210,7 +1200,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="4" t="s">
         <v>174</v>
       </c>
@@ -1226,11 +1216,11 @@
       <c r="E2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F2" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="4" t="s">
         <v>174</v>
       </c>
@@ -1246,8 +1236,11 @@
       <c r="E3" s="6" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F3" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="4" t="s">
         <v>175</v>
       </c>
@@ -1263,8 +1256,11 @@
       <c r="E4" s="6" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F4" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="8" t="s">
         <v>176</v>
       </c>
@@ -1280,8 +1276,11 @@
       <c r="E5" s="6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F5" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="8" t="s">
         <v>176</v>
       </c>
@@ -1297,8 +1296,11 @@
       <c r="E6" s="6" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F6" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="8" t="s">
         <v>177</v>
       </c>
@@ -1314,8 +1316,11 @@
       <c r="E7" s="6" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F7" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="8" t="s">
         <v>177</v>
       </c>
@@ -1331,8 +1336,11 @@
       <c r="E8" s="6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F8" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="8" t="s">
         <v>178</v>
       </c>
@@ -1348,8 +1356,11 @@
       <c r="E9" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F9" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="8" customFormat="1">
       <c r="A10" s="8" t="s">
         <v>178</v>
       </c>
@@ -1365,7 +1376,9 @@
       <c r="E10" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="8" t="s">
+        <v>197</v>
+      </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -1373,7 +1386,7 @@
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
     </row>
-    <row r="11" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" s="8" customFormat="1">
       <c r="A11" s="8" t="s">
         <v>179</v>
       </c>
@@ -1389,7 +1402,9 @@
       <c r="E11" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="8" t="s">
+        <v>197</v>
+      </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -1397,7 +1412,7 @@
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
     </row>
-    <row r="12" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" s="8" customFormat="1">
       <c r="A12" s="8" t="s">
         <v>179</v>
       </c>
@@ -1413,7 +1428,9 @@
       <c r="E12" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="8" t="s">
+        <v>197</v>
+      </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -1421,7 +1438,7 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
     </row>
-    <row r="13" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" s="8" customFormat="1">
       <c r="A13" s="8" t="s">
         <v>180</v>
       </c>
@@ -1437,7 +1454,7 @@
       <c r="E13" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="8" t="s">
         <v>198</v>
       </c>
       <c r="G13" s="7"/>
@@ -1447,7 +1464,7 @@
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
     </row>
-    <row r="14" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" s="8" customFormat="1">
       <c r="A14" s="8" t="s">
         <v>180</v>
       </c>
@@ -1463,7 +1480,7 @@
       <c r="E14" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="8" t="s">
         <v>198</v>
       </c>
       <c r="G14" s="7"/>
@@ -1473,7 +1490,7 @@
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
     </row>
-    <row r="15" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" s="8" customFormat="1">
       <c r="A15" s="8" t="s">
         <v>181</v>
       </c>
@@ -1489,7 +1506,7 @@
       <c r="E15" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="8" t="s">
         <v>197</v>
       </c>
       <c r="G15" s="7"/>
@@ -1499,7 +1516,7 @@
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" s="8" customFormat="1">
       <c r="A16" s="8" t="s">
         <v>181</v>
       </c>
@@ -1515,7 +1532,7 @@
       <c r="E16" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="8" t="s">
         <v>197</v>
       </c>
       <c r="G16" s="7"/>
@@ -1525,7 +1542,7 @@
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
     </row>
-    <row r="17" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" s="8" customFormat="1">
       <c r="A17" s="8" t="s">
         <v>195</v>
       </c>
@@ -1541,7 +1558,7 @@
       <c r="E17" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="8" t="s">
         <v>197</v>
       </c>
       <c r="G17" s="7"/>
@@ -1551,7 +1568,7 @@
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
     </row>
-    <row r="18" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" s="8" customFormat="1">
       <c r="A18" s="8" t="s">
         <v>195</v>
       </c>
@@ -1567,7 +1584,7 @@
       <c r="E18" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="8" t="s">
         <v>197</v>
       </c>
       <c r="G18" s="7"/>
@@ -1577,7 +1594,7 @@
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
     </row>
-    <row r="19" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" s="8" customFormat="1">
       <c r="A19" s="8" t="s">
         <v>195</v>
       </c>
@@ -1593,7 +1610,7 @@
       <c r="E19" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="8" t="s">
         <v>197</v>
       </c>
       <c r="G19" s="7"/>
@@ -1603,7 +1620,7 @@
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" s="8" customFormat="1">
       <c r="A20" s="8" t="s">
         <v>182</v>
       </c>
@@ -1619,7 +1636,7 @@
       <c r="E20" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="8" t="s">
         <v>197</v>
       </c>
       <c r="G20" s="7"/>
@@ -1629,7 +1646,7 @@
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
     </row>
-    <row r="21" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" s="8" customFormat="1">
       <c r="A21" s="8" t="s">
         <v>182</v>
       </c>
@@ -1645,7 +1662,7 @@
       <c r="E21" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="8" t="s">
         <v>197</v>
       </c>
       <c r="G21" s="7"/>
@@ -1655,7 +1672,7 @@
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
     </row>
-    <row r="22" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" s="8" customFormat="1">
       <c r="A22" s="8" t="s">
         <v>183</v>
       </c>
@@ -1671,7 +1688,7 @@
       <c r="E22" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="8" t="s">
         <v>197</v>
       </c>
       <c r="G22" s="7"/>
@@ -1681,7 +1698,7 @@
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
     </row>
-    <row r="23" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" s="8" customFormat="1">
       <c r="A23" s="8" t="s">
         <v>184</v>
       </c>
@@ -1697,7 +1714,7 @@
       <c r="E23" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="8" t="s">
         <v>197</v>
       </c>
       <c r="G23" s="7"/>
@@ -1707,7 +1724,7 @@
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
     </row>
-    <row r="24" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" s="8" customFormat="1">
       <c r="A24" s="8" t="s">
         <v>184</v>
       </c>
@@ -1723,7 +1740,7 @@
       <c r="E24" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="8" t="s">
         <v>197</v>
       </c>
       <c r="G24" s="7"/>
@@ -1733,7 +1750,7 @@
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
     </row>
-    <row r="25" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" s="8" customFormat="1">
       <c r="A25" s="8" t="s">
         <v>185</v>
       </c>
@@ -1749,7 +1766,7 @@
       <c r="E25" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="8" t="s">
         <v>197</v>
       </c>
       <c r="G25" s="7"/>
@@ -1759,7 +1776,7 @@
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
     </row>
-    <row r="26" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" s="8" customFormat="1">
       <c r="A26" s="8" t="s">
         <v>186</v>
       </c>
@@ -1775,7 +1792,7 @@
       <c r="E26" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="8" t="s">
         <v>197</v>
       </c>
       <c r="G26" s="7"/>
@@ -1785,7 +1802,7 @@
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
     </row>
-    <row r="27" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" s="8" customFormat="1">
       <c r="A27" s="8" t="s">
         <v>187</v>
       </c>
@@ -1801,7 +1818,7 @@
       <c r="E27" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="8" t="s">
         <v>197</v>
       </c>
       <c r="G27" s="7"/>
@@ -1811,7 +1828,7 @@
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
     </row>
-    <row r="28" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" s="8" customFormat="1">
       <c r="A28" s="8" t="s">
         <v>187</v>
       </c>
@@ -1827,7 +1844,7 @@
       <c r="E28" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="8" t="s">
         <v>197</v>
       </c>
       <c r="G28" s="7"/>
@@ -1837,7 +1854,7 @@
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
     </row>
-    <row r="29" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" s="8" customFormat="1">
       <c r="A29" s="8" t="s">
         <v>172</v>
       </c>
@@ -1853,7 +1870,7 @@
       <c r="E29" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="8" t="s">
         <v>197</v>
       </c>
       <c r="G29" s="7"/>
@@ -1863,7 +1880,7 @@
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
     </row>
-    <row r="30" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" s="8" customFormat="1">
       <c r="A30" s="8" t="s">
         <v>172</v>
       </c>
@@ -1879,7 +1896,7 @@
       <c r="E30" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="8" t="s">
         <v>197</v>
       </c>
       <c r="G30" s="7"/>
@@ -1889,7 +1906,7 @@
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
     </row>
-    <row r="31" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" s="8" customFormat="1">
       <c r="A31" s="4" t="s">
         <v>171</v>
       </c>
@@ -1905,7 +1922,7 @@
       <c r="E31" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="8" t="s">
         <v>197</v>
       </c>
       <c r="G31" s="7"/>
@@ -1915,7 +1932,7 @@
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
     </row>
-    <row r="32" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" s="8" customFormat="1">
       <c r="A32" s="4" t="s">
         <v>171</v>
       </c>
@@ -1931,7 +1948,7 @@
       <c r="E32" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="8" t="s">
         <v>197</v>
       </c>
       <c r="G32" s="7"/>
@@ -1941,7 +1958,7 @@
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
     </row>
-    <row r="33" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" s="8" customFormat="1">
       <c r="A33" s="8" t="s">
         <v>188</v>
       </c>
@@ -1957,7 +1974,7 @@
       <c r="E33" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="8" t="s">
         <v>197</v>
       </c>
       <c r="G33" s="7"/>
@@ -1967,7 +1984,7 @@
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
     </row>
-    <row r="34" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" s="8" customFormat="1">
       <c r="A34" s="8" t="s">
         <v>188</v>
       </c>
@@ -1983,7 +2000,7 @@
       <c r="E34" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="8" t="s">
         <v>197</v>
       </c>
       <c r="G34" s="7"/>
@@ -1993,7 +2010,7 @@
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
     </row>
-    <row r="35" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" s="8" customFormat="1">
       <c r="A35" s="8" t="s">
         <v>170</v>
       </c>
@@ -2009,7 +2026,7 @@
       <c r="E35" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="8" t="s">
         <v>198</v>
       </c>
       <c r="G35" s="7"/>
@@ -2019,7 +2036,7 @@
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
     </row>
-    <row r="36" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" s="8" customFormat="1">
       <c r="A36" s="8" t="s">
         <v>170</v>
       </c>
@@ -2035,7 +2052,7 @@
       <c r="E36" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="8" t="s">
         <v>198</v>
       </c>
       <c r="G36" s="7"/>
@@ -2045,7 +2062,7 @@
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
     </row>
-    <row r="37" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" s="8" customFormat="1">
       <c r="A37" s="4" t="s">
         <v>0</v>
       </c>
@@ -2061,7 +2078,7 @@
       <c r="E37" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="8" t="s">
         <v>197</v>
       </c>
       <c r="G37" s="7"/>
@@ -2071,7 +2088,7 @@
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
     </row>
-    <row r="38" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" s="8" customFormat="1">
       <c r="A38" s="4" t="s">
         <v>0</v>
       </c>
@@ -2087,7 +2104,7 @@
       <c r="E38" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="8" t="s">
         <v>197</v>
       </c>
       <c r="G38" s="7"/>
@@ -2097,7 +2114,7 @@
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
     </row>
-    <row r="39" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" s="8" customFormat="1">
       <c r="A39" s="4" t="s">
         <v>0</v>
       </c>
@@ -2113,7 +2130,7 @@
       <c r="E39" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="8" t="s">
         <v>197</v>
       </c>
       <c r="G39" s="7"/>
@@ -2123,7 +2140,7 @@
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
     </row>
-    <row r="40" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" s="8" customFormat="1">
       <c r="A40" s="4" t="s">
         <v>0</v>
       </c>
@@ -2139,7 +2156,7 @@
       <c r="E40" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" s="8" t="s">
         <v>197</v>
       </c>
       <c r="G40" s="7"/>
@@ -2149,7 +2166,7 @@
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
     </row>
-    <row r="41" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" s="8" customFormat="1">
       <c r="A41" s="4" t="s">
         <v>173</v>
       </c>
@@ -2165,7 +2182,7 @@
       <c r="E41" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F41" s="8" t="s">
         <v>197</v>
       </c>
       <c r="G41" s="7"/>
@@ -2175,7 +2192,7 @@
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
     </row>
-    <row r="42" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" s="8" customFormat="1">
       <c r="A42" s="4" t="s">
         <v>173</v>
       </c>
@@ -2191,7 +2208,7 @@
       <c r="E42" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="8" t="s">
         <v>197</v>
       </c>
       <c r="G42" s="7"/>
@@ -2201,7 +2218,7 @@
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
     </row>
-    <row r="43" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" s="8" customFormat="1">
       <c r="A43" s="4" t="s">
         <v>173</v>
       </c>
@@ -2217,7 +2234,7 @@
       <c r="E43" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F43" s="8" t="s">
         <v>197</v>
       </c>
       <c r="G43" s="7"/>
@@ -2227,7 +2244,7 @@
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
     </row>
-    <row r="44" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" s="8" customFormat="1">
       <c r="A44" s="4" t="s">
         <v>173</v>
       </c>
@@ -2243,7 +2260,7 @@
       <c r="E44" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="8" t="s">
         <v>197</v>
       </c>
       <c r="G44" s="7"/>
@@ -2253,7 +2270,7 @@
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
     </row>
-    <row r="45" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" s="8" customFormat="1">
       <c r="A45" s="4" t="s">
         <v>4</v>
       </c>
@@ -2269,7 +2286,7 @@
       <c r="E45" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F45" s="8" t="s">
         <v>197</v>
       </c>
       <c r="G45" s="7"/>
@@ -2279,7 +2296,7 @@
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
     </row>
-    <row r="46" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" s="8" customFormat="1">
       <c r="A46" s="4" t="s">
         <v>4</v>
       </c>
@@ -2295,7 +2312,7 @@
       <c r="E46" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="F46" s="8" t="s">
         <v>197</v>
       </c>
       <c r="G46" s="7"/>
@@ -2305,7 +2322,7 @@
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12">
       <c r="A47" s="4" t="s">
         <v>4</v>
       </c>
@@ -2321,11 +2338,11 @@
       <c r="E47" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F47" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F47" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" s="10" customFormat="1">
       <c r="A48" s="4" t="s">
         <v>4</v>
       </c>
@@ -2341,11 +2358,11 @@
       <c r="E48" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F48" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F48" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" s="8" customFormat="1">
       <c r="A49" s="4" t="s">
         <v>9</v>
       </c>
@@ -2361,7 +2378,7 @@
       <c r="E49" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="F49" s="8" t="s">
         <v>197</v>
       </c>
       <c r="G49" s="7"/>
@@ -2371,7 +2388,7 @@
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
     </row>
-    <row r="50" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" s="8" customFormat="1">
       <c r="A50" s="4" t="s">
         <v>9</v>
       </c>
@@ -2387,7 +2404,7 @@
       <c r="E50" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="F50" s="8" t="s">
         <v>197</v>
       </c>
       <c r="G50" s="7"/>
@@ -2397,7 +2414,7 @@
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
     </row>
-    <row r="51" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" ht="14.5" customHeight="1">
       <c r="A51" s="4" t="s">
         <v>9</v>
       </c>
@@ -2413,11 +2430,11 @@
       <c r="E51" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F51" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F51" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="4" t="s">
         <v>9</v>
       </c>
@@ -2433,11 +2450,11 @@
       <c r="E52" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F52" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F52" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="4" t="s">
         <v>9</v>
       </c>
@@ -2453,11 +2470,11 @@
       <c r="E53" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="F53" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F53" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" s="10" customFormat="1">
       <c r="A54" s="4" t="s">
         <v>9</v>
       </c>
@@ -2473,11 +2490,11 @@
       <c r="E54" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="F54" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F54" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="4" t="s">
         <v>11</v>
       </c>
@@ -2493,11 +2510,11 @@
       <c r="E55" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F55" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F55" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="4" t="s">
         <v>11</v>
       </c>
@@ -2513,11 +2530,11 @@
       <c r="E56" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="F56" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F56" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="4" t="s">
         <v>11</v>
       </c>
@@ -2533,11 +2550,11 @@
       <c r="E57" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F57" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F57" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="4" t="s">
         <v>11</v>
       </c>
@@ -2553,11 +2570,11 @@
       <c r="E58" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F58" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F58" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="4" t="s">
         <v>13</v>
       </c>
@@ -2573,11 +2590,11 @@
       <c r="E59" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="F59" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F59" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="4" t="s">
         <v>13</v>
       </c>
@@ -2593,11 +2610,11 @@
       <c r="E60" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F60" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F60" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="4" t="s">
         <v>13</v>
       </c>
@@ -2613,11 +2630,11 @@
       <c r="E61" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="F61" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F61" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="4" t="s">
         <v>13</v>
       </c>
@@ -2633,11 +2650,11 @@
       <c r="E62" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F62" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F62" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="4" t="s">
         <v>15</v>
       </c>
@@ -2653,11 +2670,11 @@
       <c r="E63" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F63" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F63" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" s="8" customFormat="1" ht="14.5" customHeight="1">
       <c r="A64" s="4" t="s">
         <v>15</v>
       </c>
@@ -2673,7 +2690,7 @@
       <c r="E64" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="F64" s="8" t="s">
         <v>197</v>
       </c>
       <c r="G64" s="7"/>
@@ -2683,7 +2700,7 @@
       <c r="K64" s="7"/>
       <c r="L64" s="7"/>
     </row>
-    <row r="65" spans="1:12" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" s="8" customFormat="1" ht="14.5" customHeight="1">
       <c r="A65" s="4" t="s">
         <v>15</v>
       </c>
@@ -2699,7 +2716,7 @@
       <c r="E65" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="F65" s="8" t="s">
         <v>197</v>
       </c>
       <c r="G65" s="7"/>
@@ -2709,7 +2726,7 @@
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
     </row>
-    <row r="66" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" s="8" customFormat="1">
       <c r="A66" s="4" t="s">
         <v>15</v>
       </c>
@@ -2725,7 +2742,7 @@
       <c r="E66" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="F66" s="8" t="s">
         <v>197</v>
       </c>
       <c r="G66" s="7"/>
@@ -2735,7 +2752,7 @@
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
     </row>
-    <row r="67" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" s="8" customFormat="1">
       <c r="A67" s="4" t="s">
         <v>15</v>
       </c>
@@ -2751,7 +2768,7 @@
       <c r="E67" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="F67" s="7" t="s">
+      <c r="F67" s="8" t="s">
         <v>197</v>
       </c>
       <c r="G67" s="7"/>
@@ -2761,7 +2778,7 @@
       <c r="K67" s="7"/>
       <c r="L67" s="7"/>
     </row>
-    <row r="68" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" s="8" customFormat="1">
       <c r="A68" s="4" t="s">
         <v>15</v>
       </c>
@@ -2777,7 +2794,7 @@
       <c r="E68" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="F68" s="7" t="s">
+      <c r="F68" s="8" t="s">
         <v>197</v>
       </c>
       <c r="G68" s="7"/>
@@ -2787,7 +2804,7 @@
       <c r="K68" s="7"/>
       <c r="L68" s="7"/>
     </row>
-    <row r="69" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" s="8" customFormat="1">
       <c r="A69" s="4" t="s">
         <v>15</v>
       </c>
@@ -2803,7 +2820,7 @@
       <c r="E69" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="F69" s="7" t="s">
+      <c r="F69" s="8" t="s">
         <v>197</v>
       </c>
       <c r="G69" s="7"/>
@@ -2813,7 +2830,7 @@
       <c r="K69" s="7"/>
       <c r="L69" s="7"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12">
       <c r="A70" s="4" t="s">
         <v>15</v>
       </c>
@@ -2829,11 +2846,11 @@
       <c r="E70" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="F70" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F70" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="4" t="s">
         <v>18</v>
       </c>
@@ -2849,11 +2866,11 @@
       <c r="E71" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F71" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F71" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" s="10" customFormat="1">
       <c r="A72" s="4" t="s">
         <v>18</v>
       </c>
@@ -2869,11 +2886,11 @@
       <c r="E72" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="F72" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F72" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" s="10" customFormat="1">
       <c r="A73" s="4" t="s">
         <v>18</v>
       </c>
@@ -2889,11 +2906,11 @@
       <c r="E73" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="F73" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F73" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="4" t="s">
         <v>18</v>
       </c>
@@ -2909,11 +2926,11 @@
       <c r="E74" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="F74" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F74" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="4" t="s">
         <v>19</v>
       </c>
@@ -2929,11 +2946,11 @@
       <c r="E75" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="F75" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F75" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="4" t="s">
         <v>19</v>
       </c>
@@ -2949,11 +2966,11 @@
       <c r="E76" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="F76" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F76" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" s="8" customFormat="1">
       <c r="A77" s="4" t="s">
         <v>19</v>
       </c>
@@ -2969,7 +2986,7 @@
       <c r="E77" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="F77" s="7" t="s">
+      <c r="F77" s="8" t="s">
         <v>197</v>
       </c>
       <c r="G77" s="7"/>
@@ -2979,7 +2996,7 @@
       <c r="K77" s="7"/>
       <c r="L77" s="7"/>
     </row>
-    <row r="78" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" s="8" customFormat="1">
       <c r="A78" s="4" t="s">
         <v>19</v>
       </c>
@@ -2995,7 +3012,7 @@
       <c r="E78" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="F78" s="7" t="s">
+      <c r="F78" s="8" t="s">
         <v>197</v>
       </c>
       <c r="G78" s="7"/>
@@ -3005,7 +3022,7 @@
       <c r="K78" s="7"/>
       <c r="L78" s="7"/>
     </row>
-    <row r="79" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" s="8" customFormat="1">
       <c r="A79" s="4" t="s">
         <v>21</v>
       </c>
@@ -3021,7 +3038,7 @@
       <c r="E79" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F79" s="7" t="s">
+      <c r="F79" s="8" t="s">
         <v>197</v>
       </c>
       <c r="G79" s="7"/>
@@ -3031,7 +3048,7 @@
       <c r="K79" s="7"/>
       <c r="L79" s="7"/>
     </row>
-    <row r="80" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" s="8" customFormat="1">
       <c r="A80" s="4" t="s">
         <v>21</v>
       </c>
@@ -3047,7 +3064,7 @@
       <c r="E80" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="F80" s="7" t="s">
+      <c r="F80" s="8" t="s">
         <v>197</v>
       </c>
       <c r="G80" s="7"/>
@@ -3057,7 +3074,7 @@
       <c r="K80" s="7"/>
       <c r="L80" s="7"/>
     </row>
-    <row r="81" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" s="8" customFormat="1">
       <c r="A81" s="4" t="s">
         <v>21</v>
       </c>
@@ -3073,7 +3090,7 @@
       <c r="E81" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F81" s="7" t="s">
+      <c r="F81" s="8" t="s">
         <v>197</v>
       </c>
       <c r="G81" s="7"/>
@@ -3083,7 +3100,7 @@
       <c r="K81" s="7"/>
       <c r="L81" s="7"/>
     </row>
-    <row r="82" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" s="8" customFormat="1">
       <c r="A82" s="4" t="s">
         <v>21</v>
       </c>
@@ -3099,7 +3116,7 @@
       <c r="E82" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F82" s="7" t="s">
+      <c r="F82" s="8" t="s">
         <v>197</v>
       </c>
       <c r="G82" s="7"/>
@@ -3109,7 +3126,7 @@
       <c r="K82" s="7"/>
       <c r="L82" s="7"/>
     </row>
-    <row r="83" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" s="8" customFormat="1">
       <c r="A83" s="4" t="s">
         <v>23</v>
       </c>
@@ -3125,7 +3142,7 @@
       <c r="E83" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="F83" s="7" t="s">
+      <c r="F83" s="8" t="s">
         <v>197</v>
       </c>
       <c r="G83" s="7"/>
@@ -3135,7 +3152,7 @@
       <c r="K83" s="7"/>
       <c r="L83" s="7"/>
     </row>
-    <row r="84" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" s="8" customFormat="1">
       <c r="A84" s="4" t="s">
         <v>23</v>
       </c>
@@ -3151,7 +3168,7 @@
       <c r="E84" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="F84" s="7" t="s">
+      <c r="F84" s="8" t="s">
         <v>197</v>
       </c>
       <c r="G84" s="7"/>
@@ -3161,7 +3178,7 @@
       <c r="K84" s="7"/>
       <c r="L84" s="7"/>
     </row>
-    <row r="85" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" s="8" customFormat="1">
       <c r="A85" s="4" t="s">
         <v>23</v>
       </c>
@@ -3177,7 +3194,7 @@
       <c r="E85" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="F85" s="7" t="s">
+      <c r="F85" s="8" t="s">
         <v>197</v>
       </c>
       <c r="G85" s="7"/>
@@ -3187,7 +3204,7 @@
       <c r="K85" s="7"/>
       <c r="L85" s="7"/>
     </row>
-    <row r="86" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" s="10" customFormat="1">
       <c r="A86" s="4" t="s">
         <v>24</v>
       </c>
@@ -3203,11 +3220,11 @@
       <c r="E86" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F86" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F86" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="4" t="s">
         <v>24</v>
       </c>
@@ -3223,11 +3240,11 @@
       <c r="E87" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="F87" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F87" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="4" t="s">
         <v>24</v>
       </c>
@@ -3243,11 +3260,11 @@
       <c r="E88" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F88" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F88" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" s="10" customFormat="1">
       <c r="A89" s="4" t="s">
         <v>24</v>
       </c>
@@ -3263,11 +3280,11 @@
       <c r="E89" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="F89" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F89" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="4" t="s">
         <v>26</v>
       </c>
@@ -3283,11 +3300,11 @@
       <c r="E90" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F90" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F90" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="4" t="s">
         <v>26</v>
       </c>
@@ -3303,11 +3320,11 @@
       <c r="E91" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F91" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F91" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="4" t="s">
         <v>26</v>
       </c>
@@ -3323,11 +3340,11 @@
       <c r="E92" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="F92" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F92" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="4" t="s">
         <v>26</v>
       </c>
@@ -3343,11 +3360,11 @@
       <c r="E93" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="F93" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F93" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" s="8" customFormat="1">
       <c r="A94" s="4" t="s">
         <v>26</v>
       </c>
@@ -3363,7 +3380,7 @@
       <c r="E94" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="F94" s="7" t="s">
+      <c r="F94" s="8" t="s">
         <v>197</v>
       </c>
       <c r="G94" s="7"/>
@@ -3373,7 +3390,7 @@
       <c r="K94" s="7"/>
       <c r="L94" s="7"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12">
       <c r="A95" s="4" t="s">
         <v>26</v>
       </c>
@@ -3389,11 +3406,11 @@
       <c r="E95" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="F95" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F95" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="4" t="s">
         <v>26</v>
       </c>
@@ -3409,11 +3426,11 @@
       <c r="E96" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="F96" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F96" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="4" t="s">
         <v>26</v>
       </c>
@@ -3429,11 +3446,11 @@
       <c r="E97" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="F97" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F97" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="4" t="s">
         <v>29</v>
       </c>
@@ -3449,11 +3466,11 @@
       <c r="E98" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="F98" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F98" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" s="10" customFormat="1">
       <c r="A99" s="4" t="s">
         <v>29</v>
       </c>
@@ -3469,11 +3486,11 @@
       <c r="E99" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="F99" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F99" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" s="10" customFormat="1">
       <c r="A100" s="4" t="s">
         <v>29</v>
       </c>
@@ -3489,11 +3506,11 @@
       <c r="E100" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F100" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F100" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="4" t="s">
         <v>29</v>
       </c>
@@ -3509,11 +3526,11 @@
       <c r="E101" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F101" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F101" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="4" t="s">
         <v>33</v>
       </c>
@@ -3529,11 +3546,11 @@
       <c r="E102" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F102" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F102" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" s="8" customFormat="1">
       <c r="A103" s="4" t="s">
         <v>33</v>
       </c>
@@ -3549,7 +3566,7 @@
       <c r="E103" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F103" s="7" t="s">
+      <c r="F103" s="8" t="s">
         <v>197</v>
       </c>
       <c r="G103" s="7"/>
@@ -3559,7 +3576,7 @@
       <c r="K103" s="7"/>
       <c r="L103" s="7"/>
     </row>
-    <row r="104" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" s="8" customFormat="1">
       <c r="A104" s="8" t="s">
         <v>189</v>
       </c>
@@ -3579,7 +3596,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="105" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" s="8" customFormat="1">
       <c r="A105" s="8" t="s">
         <v>189</v>
       </c>
@@ -3599,7 +3616,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="106" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" s="8" customFormat="1">
       <c r="A106" s="8" t="s">
         <v>189</v>
       </c>
@@ -3619,7 +3636,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="107" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" s="8" customFormat="1">
       <c r="A107" s="4" t="s">
         <v>35</v>
       </c>
@@ -3635,11 +3652,11 @@
       <c r="E107" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="F107" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F107" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" s="8" customFormat="1" ht="14.5" customHeight="1">
       <c r="A108" s="4" t="s">
         <v>35</v>
       </c>
@@ -3655,11 +3672,11 @@
       <c r="E108" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="F108" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F108" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" s="8" customFormat="1" ht="14.5" customHeight="1">
       <c r="A109" s="4" t="s">
         <v>35</v>
       </c>
@@ -3675,11 +3692,11 @@
       <c r="E109" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F109" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F109" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" s="8" customFormat="1">
       <c r="A110" s="4" t="s">
         <v>35</v>
       </c>
@@ -3695,11 +3712,11 @@
       <c r="E110" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F110" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F110" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
       <c r="A111" s="11" t="s">
         <v>199</v>
       </c>
@@ -3715,11 +3732,11 @@
       <c r="E111" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="F111" s="7" t="s">
+      <c r="F111" s="8" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12">
       <c r="A112" s="11" t="s">
         <v>199</v>
       </c>
@@ -3735,11 +3752,11 @@
       <c r="E112" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="F112" s="7" t="s">
+      <c r="F112" s="8" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6">
       <c r="A113" s="11" t="s">
         <v>199</v>
       </c>
@@ -3755,11 +3772,11 @@
       <c r="E113" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="F113" s="7" t="s">
+      <c r="F113" s="8" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6">
       <c r="A114" s="11" t="s">
         <v>199</v>
       </c>
@@ -3775,11 +3792,11 @@
       <c r="E114" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="F114" s="7" t="s">
+      <c r="F114" s="8" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6">
       <c r="A115" s="11" t="s">
         <v>205</v>
       </c>
@@ -3795,11 +3812,11 @@
       <c r="E115" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="F115" s="7" t="s">
+      <c r="F115" s="8" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6">
       <c r="A116" s="11" t="s">
         <v>205</v>
       </c>
@@ -3815,11 +3832,11 @@
       <c r="E116" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="F116" s="7" t="s">
+      <c r="F116" s="8" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6">
       <c r="A117" s="11" t="s">
         <v>209</v>
       </c>
@@ -3835,11 +3852,11 @@
       <c r="E117" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="F117" s="7" t="s">
+      <c r="F117" s="8" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6">
       <c r="A118" s="11" t="s">
         <v>209</v>
       </c>
@@ -3855,11 +3872,11 @@
       <c r="E118" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="F118" s="7" t="s">
+      <c r="F118" s="8" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6">
       <c r="A119" s="11" t="s">
         <v>209</v>
       </c>
@@ -3875,11 +3892,11 @@
       <c r="E119" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="F119" s="7" t="s">
+      <c r="F119" s="8" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6">
       <c r="A120" s="11" t="s">
         <v>209</v>
       </c>
@@ -3895,11 +3912,11 @@
       <c r="E120" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="F120" s="7" t="s">
+      <c r="F120" s="8" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6">
       <c r="A121" s="11" t="s">
         <v>212</v>
       </c>
@@ -3915,11 +3932,11 @@
       <c r="E121" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="F121" s="7" t="s">
+      <c r="F121" s="8" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6">
       <c r="A122" s="11" t="s">
         <v>212</v>
       </c>
@@ -3935,11 +3952,11 @@
       <c r="E122" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="F122" s="7" t="s">
+      <c r="F122" s="8" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6">
       <c r="A123" s="11" t="s">
         <v>216</v>
       </c>
@@ -3955,11 +3972,11 @@
       <c r="E123" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="F123" s="7" t="s">
+      <c r="F123" s="8" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6">
       <c r="A124" s="11" t="s">
         <v>216</v>
       </c>
@@ -3975,11 +3992,11 @@
       <c r="E124" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="F124" s="7" t="s">
+      <c r="F124" s="8" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6">
       <c r="A125" s="11" t="s">
         <v>221</v>
       </c>
@@ -3995,11 +4012,11 @@
       <c r="E125" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="F125" s="7" t="s">
+      <c r="F125" s="8" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6">
       <c r="A126" s="11" t="s">
         <v>221</v>
       </c>
@@ -4015,11 +4032,11 @@
       <c r="E126" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="F126" s="7" t="s">
+      <c r="F126" s="8" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6">
       <c r="A127" s="11" t="s">
         <v>225</v>
       </c>
@@ -4035,11 +4052,11 @@
       <c r="E127" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="F127" s="7" t="s">
+      <c r="F127" s="8" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6">
       <c r="A128" s="11" t="s">
         <v>225</v>
       </c>
@@ -4055,13 +4072,13 @@
       <c r="E128" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="F128" s="7" t="s">
+      <c r="F128" s="8" t="s">
         <v>217</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E128" xr:uid="{06D825B9-6A44-4EAD-8B36-4FE9BC2E96F1}"/>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
